--- a/artfynd/A 59864-2021.xlsx
+++ b/artfynd/A 59864-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112164609</v>
+        <v>112164561</v>
       </c>
       <c r="B3" t="n">
-        <v>92683</v>
+        <v>93158</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2362</v>
+        <v>2667</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>332973.0533703604</v>
+        <v>332934.9485370842</v>
       </c>
       <c r="R3" t="n">
-        <v>6627006.656504014</v>
+        <v>6626957.391457222</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112189008</v>
+        <v>112164673</v>
       </c>
       <c r="B4" t="n">
-        <v>95233</v>
+        <v>93157</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2609</v>
+        <v>1078</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsfliksmossa</t>
+          <t>Rundfjädermossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lejeunea cavifolia</t>
+          <t>Neckera besseri</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ehrh.) Lindb.</t>
+          <t>(Lobarz.) Jur.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1006,6 +1006,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Under överhängande klippa</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1028,6 +1033,711 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112164702</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Norr Masetjärnet, Vrm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>332979.8007009666</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6627033.102525626</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112164607</v>
+      </c>
+      <c r="B6" t="n">
+        <v>93158</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2667</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Platt fjädermossa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Neckera complanata</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Hedw.) Huebener</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Norr Masetjärnet, Vrm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>332973.0533703604</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6627006.656504014</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112164579</v>
+      </c>
+      <c r="B7" t="n">
+        <v>93159</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2666</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Grov fjädermossa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Neckera crispa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Norr Masetjärnet, Vrm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>332922.7263719498</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6626955.416314425</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112164609</v>
+      </c>
+      <c r="B8" t="n">
+        <v>92683</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2362</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Blek stjärnmossa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Mnium stellare</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Norr Masetjärnet, Vrm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>332973.0533703604</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6627006.656504014</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112164661</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89864</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5467</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kådvaxskinn</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phlebia serialis</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Norr Masetjärnet, Vrm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>332864.8090984516</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6626971.642313651</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112189008</v>
+      </c>
+      <c r="B10" t="n">
+        <v>95233</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2609</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Blåsfliksmossa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lejeunea cavifolia</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ehrh.) Lindb.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Norr Masetjärnet, Vrm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>332854.0101354558</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6626967.584723449</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Jeanette Fahlstad</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 59864-2021.xlsx
+++ b/artfynd/A 59864-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112164565</v>
+        <v>112164561</v>
       </c>
       <c r="B2" t="n">
-        <v>92683</v>
+        <v>93158</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2362</v>
+        <v>2667</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112164561</v>
+        <v>112164565</v>
       </c>
       <c r="B3" t="n">
-        <v>93158</v>
+        <v>92683</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2667</v>
+        <v>2362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>

--- a/artfynd/A 59864-2021.xlsx
+++ b/artfynd/A 59864-2021.xlsx
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>332934.9485370842</v>
+        <v>332935</v>
       </c>
       <c r="R2" t="n">
-        <v>6626957.391457222</v>
+        <v>6626957</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -757,19 +757,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112164565</v>
+        <v>112164609</v>
       </c>
       <c r="B3" t="n">
         <v>92683</v>
@@ -841,10 +831,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>332934.9485370842</v>
+        <v>332973</v>
       </c>
       <c r="R3" t="n">
-        <v>6626957.391457222</v>
+        <v>6627007</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,19 +864,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112164673</v>
+        <v>112164702</v>
       </c>
       <c r="B4" t="n">
-        <v>93157</v>
+        <v>89369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,31 +906,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1078</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rundfjädermossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neckera besseri</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Lobarz.) Jur.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -958,10 +937,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>332854.0101354558</v>
+        <v>332980</v>
       </c>
       <c r="R4" t="n">
-        <v>6626967.584723449</v>
+        <v>6627033</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -991,24 +970,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Under överhängande klippa</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,10 +1000,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112164702</v>
+        <v>112164565</v>
       </c>
       <c r="B5" t="n">
-        <v>89369</v>
+        <v>92683</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1052,26 +1016,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>2362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1079,10 +1044,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>332979.8007009666</v>
+        <v>332935</v>
       </c>
       <c r="R5" t="n">
-        <v>6627033.102525626</v>
+        <v>6626957</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1112,19 +1077,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1152,10 +1107,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112164607</v>
+        <v>112164673</v>
       </c>
       <c r="B6" t="n">
-        <v>93158</v>
+        <v>93157</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,25 +1119,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2667</v>
+        <v>1078</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Rundfjädermossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Neckera besseri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Lobarz.) Jur.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1151,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>332973.0533703604</v>
+        <v>332854</v>
       </c>
       <c r="R6" t="n">
-        <v>6627006.656504014</v>
+        <v>6626968</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1229,19 +1184,14 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Under överhängande klippa</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1269,10 +1219,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112164579</v>
+        <v>112164607</v>
       </c>
       <c r="B7" t="n">
-        <v>93159</v>
+        <v>93158</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,21 +1235,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1313,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>332922.7263719498</v>
+        <v>332973</v>
       </c>
       <c r="R7" t="n">
-        <v>6626955.416314425</v>
+        <v>6627007</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1346,19 +1296,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1386,10 +1326,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112164609</v>
+        <v>112164661</v>
       </c>
       <c r="B8" t="n">
-        <v>92683</v>
+        <v>89864</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,31 +1338,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2362</v>
+        <v>5467</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1430,10 +1369,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>332973.0533703604</v>
+        <v>332865</v>
       </c>
       <c r="R8" t="n">
-        <v>6627006.656504014</v>
+        <v>6626972</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1463,19 +1402,14 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1503,10 +1437,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112164661</v>
+        <v>112164579</v>
       </c>
       <c r="B9" t="n">
-        <v>89864</v>
+        <v>93159</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,30 +1449,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5467</v>
+        <v>2666</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1546,10 +1481,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>332864.8090984516</v>
+        <v>332923</v>
       </c>
       <c r="R9" t="n">
-        <v>6626971.642313651</v>
+        <v>6626955</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1579,24 +1514,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1668,10 +1588,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>332854.0101354558</v>
+        <v>332854</v>
       </c>
       <c r="R10" t="n">
-        <v>6626967.584723449</v>
+        <v>6626968</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1701,19 +1621,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 59864-2021.xlsx
+++ b/artfynd/A 59864-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112164561</v>
+        <v>112164607</v>
       </c>
       <c r="B2" t="n">
-        <v>93158</v>
+        <v>93304</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -705,12 +705,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Alleniella complanata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>332935</v>
+        <v>332973</v>
       </c>
       <c r="R2" t="n">
-        <v>6626957</v>
+        <v>6627007</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112164609</v>
+        <v>112164661</v>
       </c>
       <c r="B3" t="n">
-        <v>92683</v>
+        <v>89998</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -799,31 +799,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2362</v>
+        <v>5467</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -831,10 +830,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>332973</v>
+        <v>332865</v>
       </c>
       <c r="R3" t="n">
-        <v>6627007</v>
+        <v>6626972</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -867,6 +866,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +898,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112164702</v>
+        <v>112164673</v>
       </c>
       <c r="B4" t="n">
-        <v>89369</v>
+        <v>93303</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -906,30 +910,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>1078</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rundfjädermossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alleniella besseri</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Lobarz.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -937,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>332980</v>
+        <v>332854</v>
       </c>
       <c r="R4" t="n">
-        <v>6627033</v>
+        <v>6626968</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -973,6 +978,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Under överhängande klippa</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1000,10 +1010,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112164565</v>
+        <v>112164579</v>
       </c>
       <c r="B5" t="n">
-        <v>92683</v>
+        <v>93308</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1016,16 +1026,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2362</v>
+        <v>2666</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1044,10 +1054,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>332935</v>
+        <v>332923</v>
       </c>
       <c r="R5" t="n">
-        <v>6626957</v>
+        <v>6626955</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1107,10 +1117,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112164673</v>
+        <v>112164561</v>
       </c>
       <c r="B6" t="n">
-        <v>93157</v>
+        <v>93304</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1119,25 +1129,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1078</v>
+        <v>2667</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rundfjädermossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neckera besseri</t>
+          <t>Alleniella complanata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Lobarz.) Jur.</t>
+          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1151,10 +1161,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>332854</v>
+        <v>332935</v>
       </c>
       <c r="R6" t="n">
-        <v>6626968</v>
+        <v>6626957</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1187,11 +1197,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Under överhängande klippa</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1219,10 +1224,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112164607</v>
+        <v>112164702</v>
       </c>
       <c r="B7" t="n">
-        <v>93158</v>
+        <v>89503</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1235,27 +1240,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2667</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1263,10 +1267,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>332973</v>
+        <v>332980</v>
       </c>
       <c r="R7" t="n">
-        <v>6627007</v>
+        <v>6627033</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1326,10 +1330,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112164661</v>
+        <v>112164609</v>
       </c>
       <c r="B8" t="n">
-        <v>89864</v>
+        <v>92831</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1338,30 +1342,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5467</v>
+        <v>2362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1369,10 +1374,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>332865</v>
+        <v>332973</v>
       </c>
       <c r="R8" t="n">
-        <v>6626972</v>
+        <v>6627007</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1405,11 +1410,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1437,10 +1437,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112164579</v>
+        <v>112164565</v>
       </c>
       <c r="B9" t="n">
-        <v>93159</v>
+        <v>92831</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2666</v>
+        <v>2362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>332923</v>
+        <v>332935</v>
       </c>
       <c r="R9" t="n">
-        <v>6626955</v>
+        <v>6626957</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1547,7 +1547,7 @@
         <v>112189008</v>
       </c>
       <c r="B10" t="n">
-        <v>95233</v>
+        <v>95388</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>

--- a/artfynd/A 59864-2021.xlsx
+++ b/artfynd/A 59864-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112164607</v>
+        <v>112164565</v>
       </c>
       <c r="B2" t="n">
-        <v>93304</v>
+        <v>92845</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2667</v>
+        <v>2362</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alleniella complanata</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>332973</v>
+        <v>332935</v>
       </c>
       <c r="R2" t="n">
-        <v>6627007</v>
+        <v>6626957</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112164661</v>
+        <v>112164673</v>
       </c>
       <c r="B3" t="n">
-        <v>89998</v>
+        <v>93317</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -803,26 +803,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5467</v>
+        <v>1078</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Rundfjädermossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Alleniella besseri</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>(Lobarz.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -830,10 +831,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>332865</v>
+        <v>332854</v>
       </c>
       <c r="R3" t="n">
-        <v>6626972</v>
+        <v>6626968</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -870,7 +871,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På granlåga</t>
+          <t>Under överhängande klippa</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -898,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112164673</v>
+        <v>112164579</v>
       </c>
       <c r="B4" t="n">
-        <v>93303</v>
+        <v>93322</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -910,25 +911,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1078</v>
+        <v>2666</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rundfjädermossa</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alleniella besseri</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Lobarz.) S.Olsson, Enroth &amp; D.Quandt</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -942,10 +943,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>332854</v>
+        <v>332923</v>
       </c>
       <c r="R4" t="n">
-        <v>6626968</v>
+        <v>6626955</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -978,11 +979,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Under överhängande klippa</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1010,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112164579</v>
+        <v>112164702</v>
       </c>
       <c r="B5" t="n">
-        <v>93308</v>
+        <v>89517</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1026,27 +1022,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2666</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1054,10 +1049,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>332923</v>
+        <v>332980</v>
       </c>
       <c r="R5" t="n">
-        <v>6626955</v>
+        <v>6627033</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1117,10 +1112,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112164561</v>
+        <v>112164607</v>
       </c>
       <c r="B6" t="n">
-        <v>93304</v>
+        <v>93318</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1161,10 +1156,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>332935</v>
+        <v>332973</v>
       </c>
       <c r="R6" t="n">
-        <v>6626957</v>
+        <v>6627007</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1224,10 +1219,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112164702</v>
+        <v>112164561</v>
       </c>
       <c r="B7" t="n">
-        <v>89503</v>
+        <v>93318</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1240,26 +1235,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>2667</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alleniella complanata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1267,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>332980</v>
+        <v>332935</v>
       </c>
       <c r="R7" t="n">
-        <v>6627033</v>
+        <v>6626957</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1333,7 +1329,7 @@
         <v>112164609</v>
       </c>
       <c r="B8" t="n">
-        <v>92831</v>
+        <v>92845</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1437,10 +1433,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112164565</v>
+        <v>112164661</v>
       </c>
       <c r="B9" t="n">
-        <v>92831</v>
+        <v>90012</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1449,31 +1445,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2362</v>
+        <v>5467</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1481,10 +1476,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>332935</v>
+        <v>332865</v>
       </c>
       <c r="R9" t="n">
-        <v>6626957</v>
+        <v>6626972</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1517,6 +1512,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1547,7 +1547,7 @@
         <v>112189008</v>
       </c>
       <c r="B10" t="n">
-        <v>95388</v>
+        <v>95402</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>

--- a/artfynd/A 59864-2021.xlsx
+++ b/artfynd/A 59864-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112164565</v>
+        <v>112164661</v>
       </c>
       <c r="B2" t="n">
-        <v>92845</v>
+        <v>90012</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,31 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2362</v>
+        <v>5467</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -724,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>332935</v>
+        <v>332865</v>
       </c>
       <c r="R2" t="n">
-        <v>6626957</v>
+        <v>6626972</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,6 +759,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -1006,10 +1010,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112164702</v>
+        <v>112164565</v>
       </c>
       <c r="B5" t="n">
-        <v>89517</v>
+        <v>92845</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1022,26 +1026,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>2362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1049,10 +1054,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>332980</v>
+        <v>332935</v>
       </c>
       <c r="R5" t="n">
-        <v>6627033</v>
+        <v>6626957</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1219,10 +1224,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112164561</v>
+        <v>112164702</v>
       </c>
       <c r="B7" t="n">
-        <v>93318</v>
+        <v>89517</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1235,27 +1240,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2667</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alleniella complanata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1263,10 +1267,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>332935</v>
+        <v>332980</v>
       </c>
       <c r="R7" t="n">
-        <v>6626957</v>
+        <v>6627033</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1433,10 +1437,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112164661</v>
+        <v>112164561</v>
       </c>
       <c r="B9" t="n">
-        <v>90012</v>
+        <v>93318</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1445,30 +1449,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5467</v>
+        <v>2667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Alleniella complanata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1476,10 +1481,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>332865</v>
+        <v>332935</v>
       </c>
       <c r="R9" t="n">
-        <v>6626972</v>
+        <v>6626957</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1512,11 +1517,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 59864-2021.xlsx
+++ b/artfynd/A 59864-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112164661</v>
+        <v>112164673</v>
       </c>
       <c r="B2" t="n">
-        <v>90012</v>
+        <v>93317</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5467</v>
+        <v>1078</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Rundfjädermossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Alleniella besseri</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>(Lobarz.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>332865</v>
+        <v>332854</v>
       </c>
       <c r="R2" t="n">
-        <v>6626972</v>
+        <v>6626968</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -763,7 +764,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På granlåga</t>
+          <t>Under överhängande klippa</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112164673</v>
+        <v>112164579</v>
       </c>
       <c r="B3" t="n">
-        <v>93317</v>
+        <v>93322</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -803,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1078</v>
+        <v>2666</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rundfjädermossa</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alleniella besseri</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Lobarz.) S.Olsson, Enroth &amp; D.Quandt</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -835,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>332854</v>
+        <v>332923</v>
       </c>
       <c r="R3" t="n">
-        <v>6626968</v>
+        <v>6626955</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -871,11 +872,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Under överhängande klippa</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112164579</v>
+        <v>112164661</v>
       </c>
       <c r="B4" t="n">
-        <v>93322</v>
+        <v>90012</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -915,31 +911,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2666</v>
+        <v>5467</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -947,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>332923</v>
+        <v>332865</v>
       </c>
       <c r="R4" t="n">
-        <v>6626955</v>
+        <v>6626972</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -983,6 +978,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD4" t="b">
